--- a/content/section4/1.2-navigate/123.xlsx
+++ b/content/section4/1.2-navigate/123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\surana\2025\excel\workshop\content\section4\1.2-navigate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\surana\2026\excel\workshop\content\section4\1.2-navigate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB4879-42E0-4A3C-AD87-2CA5A8CB3A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ED47A1-8FE8-4C93-9F08-4F50A240F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing Plan Budget" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,12 +444,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -593,7 +587,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -615,9 +609,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="20% - Accent3" xfId="16" builtinId="38" customBuiltin="1"/>
@@ -2576,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2846,7 +2842,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1:G1" r:id="rId1" display="Marketing Budget 2017 to 2022" xr:uid="{D5D22648-30B1-4603-9A25-A5987E60315A}"/>
+    <hyperlink ref="A1:G1" r:id="rId1" display="Marketing Budget 2017 to 2022" xr:uid="{6783E537-FA71-4857-89ED-93EF0FF3B910}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2867,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2879,20 +2875,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
       <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
@@ -3160,12 +3156,9 @@
       <formula1>"A,B,C"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B1:M1" r:id="rId1" display="Maintenance Schedule - Primary Aircraft" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3185,15 +3178,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3425,7 +3418,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1:G1" location="'Maintenance Schedule'!A1" display="Profit Forecast (Million Euro) 2017 to 2022" xr:uid="{3E35196A-28BE-4A7A-910C-4859695474A6}"/>
+    <hyperlink ref="A1:G1" location="'Maintenance Schedule'!B3" display="Profit Forecast (Million Euro) 2017 to 2022" xr:uid="{7FF0E7B4-6580-40AB-8F74-37372E372BEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
